--- a/Code/Results/Cases/Case_0_110/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_110/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.8411578215281015</v>
+        <v>1.069761271434878</v>
       </c>
       <c r="D2">
-        <v>0.8583029811561593</v>
+        <v>1.067785388946207</v>
       </c>
       <c r="E2">
-        <v>0.8657557195464394</v>
+        <v>1.07326956157212</v>
       </c>
       <c r="F2">
-        <v>0.862143049772925</v>
+        <v>1.082819363328973</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.02359499962809</v>
       </c>
       <c r="J2">
-        <v>0.8694071624540786</v>
+        <v>1.074694357669287</v>
       </c>
       <c r="K2">
-        <v>0.8721666837734572</v>
+        <v>1.070492320365493</v>
       </c>
       <c r="L2">
-        <v>0.879467133268647</v>
+        <v>1.075961869338504</v>
       </c>
       <c r="M2">
-        <v>0.8759278510728091</v>
+        <v>1.085486588178511</v>
       </c>
       <c r="N2">
-        <v>0.8706418203471588</v>
+        <v>1.076220546926343</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.8823592107182967</v>
+        <v>1.07378490091116</v>
       </c>
       <c r="D3">
-        <v>0.8960278820645088</v>
+        <v>1.071509064804203</v>
       </c>
       <c r="E3">
-        <v>0.9031115166354546</v>
+        <v>1.076957498081293</v>
       </c>
       <c r="F3">
-        <v>0.9017884205501538</v>
+        <v>1.086771039950969</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208684</v>
       </c>
       <c r="J3">
-        <v>0.9066661549396474</v>
+        <v>1.078360888699482</v>
       </c>
       <c r="K3">
-        <v>0.9081900234271585</v>
+        <v>1.074024634390174</v>
       </c>
       <c r="L3">
-        <v>0.9151550870259125</v>
+        <v>1.079459663349571</v>
       </c>
       <c r="M3">
-        <v>0.9138539556731287</v>
+        <v>1.089249426160168</v>
       </c>
       <c r="N3">
-        <v>0.907953724875723</v>
+        <v>1.079892284851158</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9043742790968106</v>
+        <v>1.076362090783609</v>
       </c>
       <c r="D4">
-        <v>0.9162246006762913</v>
+        <v>1.073893282188317</v>
       </c>
       <c r="E4">
-        <v>0.9231166991317448</v>
+        <v>1.079318663033241</v>
       </c>
       <c r="F4">
-        <v>0.9230220240667671</v>
+        <v>1.089302230544024</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>0.9265864589071027</v>
+        <v>1.080707745567631</v>
       </c>
       <c r="K4">
-        <v>0.927451622770007</v>
+        <v>1.076285050242306</v>
       </c>
       <c r="L4">
-        <v>0.9342410559940403</v>
+        <v>1.081697799192502</v>
       </c>
       <c r="M4">
-        <v>0.9341477780222496</v>
+        <v>1.09165847422222</v>
       </c>
       <c r="N4">
-        <v>0.9279023179597031</v>
+        <v>1.082242474525248</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9128696078399898</v>
+        <v>1.077439446749066</v>
       </c>
       <c r="D5">
-        <v>0.9240240542182492</v>
+        <v>1.074889764089804</v>
       </c>
       <c r="E5">
-        <v>0.9308430664535845</v>
+        <v>1.080305469383531</v>
       </c>
       <c r="F5">
-        <v>0.9312241168527952</v>
+        <v>1.090360376086116</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628352</v>
       </c>
       <c r="J5">
-        <v>0.9342738505063436</v>
+        <v>1.081688428980044</v>
       </c>
       <c r="K5">
-        <v>0.9348847302488305</v>
+        <v>1.077229484796218</v>
       </c>
       <c r="L5">
-        <v>0.9416068616637298</v>
+        <v>1.08263287913079</v>
       </c>
       <c r="M5">
-        <v>0.9419825511885853</v>
+        <v>1.092665275982175</v>
       </c>
       <c r="N5">
-        <v>0.9356006265367709</v>
+        <v>1.083224550620593</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.914258004243035</v>
+        <v>1.077619988369254</v>
       </c>
       <c r="D6">
-        <v>0.9252989954957966</v>
+        <v>1.075056740895716</v>
       </c>
       <c r="E6">
-        <v>0.932106101380111</v>
+        <v>1.080470822488941</v>
       </c>
       <c r="F6">
-        <v>0.9325650087775574</v>
+        <v>1.090537699503253</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045370270238388</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>0.9355301831373183</v>
+        <v>1.081852747741767</v>
       </c>
       <c r="K6">
-        <v>0.9360994902787322</v>
+        <v>1.077387722367406</v>
       </c>
       <c r="L6">
-        <v>0.9428106428285262</v>
+        <v>1.082789546670653</v>
       </c>
       <c r="M6">
-        <v>0.9432631450594361</v>
+        <v>1.092833978650151</v>
       </c>
       <c r="N6">
-        <v>0.9368587433041851</v>
+        <v>1.083389102733805</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9044904661855659</v>
+        <v>1.076376510130172</v>
       </c>
       <c r="D7">
-        <v>0.9163312504991578</v>
+        <v>1.073906619924006</v>
       </c>
       <c r="E7">
-        <v>0.92322234655646</v>
+        <v>1.079331871424509</v>
       </c>
       <c r="F7">
-        <v>0.9231341704937919</v>
+        <v>1.089316392706307</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.02344298551034</v>
       </c>
       <c r="J7">
-        <v>0.9266915967844701</v>
+        <v>1.080720872565408</v>
       </c>
       <c r="K7">
-        <v>0.927553283746634</v>
+        <v>1.076297692531983</v>
       </c>
       <c r="L7">
-        <v>0.9343417949687048</v>
+        <v>1.081710316440782</v>
       </c>
       <c r="M7">
-        <v>0.9342549192579397</v>
+        <v>1.091671950315747</v>
       </c>
       <c r="N7">
-        <v>0.9280076051449159</v>
+        <v>1.082255620164868</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.856348485082112</v>
+        <v>1.071126668725622</v>
       </c>
       <c r="D8">
-        <v>0.8721991855410706</v>
+        <v>1.06904917432753</v>
       </c>
       <c r="E8">
-        <v>0.8795139826966548</v>
+        <v>1.074521252353219</v>
       </c>
       <c r="F8">
-        <v>0.8767447633558766</v>
+        <v>1.084160324290593</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.8831391596228573</v>
+        <v>1.075938910077685</v>
       </c>
       <c r="K8">
-        <v>0.8854422872492049</v>
+        <v>1.071691425488774</v>
       </c>
       <c r="L8">
-        <v>0.8926178700018182</v>
+        <v>1.077149295479841</v>
       </c>
       <c r="M8">
-        <v>0.8899009968551335</v>
+        <v>1.086763716044522</v>
       </c>
       <c r="N8">
-        <v>0.8843933185269992</v>
+        <v>1.077466866741913</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.856348485082112</v>
+        <v>1.061663718938178</v>
       </c>
       <c r="D9">
-        <v>0.8721991855410706</v>
+        <v>1.060286977572865</v>
       </c>
       <c r="E9">
-        <v>0.8795139826966548</v>
+        <v>1.06584221789996</v>
       </c>
       <c r="F9">
-        <v>0.8767447633558766</v>
+        <v>1.074867182822559</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045260356825638</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.8831391596228573</v>
+        <v>1.067306791918144</v>
       </c>
       <c r="K9">
-        <v>0.8854422872492049</v>
+        <v>1.063372311689228</v>
       </c>
       <c r="L9">
-        <v>0.8926178700018182</v>
+        <v>1.068910423956386</v>
       </c>
       <c r="M9">
-        <v>0.8899009968551335</v>
+        <v>1.077907974389667</v>
       </c>
       <c r="N9">
-        <v>0.8843933185269992</v>
+        <v>1.068822489984467</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.856348485082112</v>
+        <v>1.055197854270927</v>
       </c>
       <c r="D10">
-        <v>0.8721991855410706</v>
+        <v>1.054295611293696</v>
       </c>
       <c r="E10">
-        <v>0.8795139826966548</v>
+        <v>1.059906854158194</v>
       </c>
       <c r="F10">
-        <v>0.8767447633558766</v>
+        <v>1.068518011982952</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045260356825638</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.8831391596228573</v>
+        <v>1.061400184710702</v>
       </c>
       <c r="K10">
-        <v>0.8854422872492049</v>
+        <v>1.057677090588836</v>
       </c>
       <c r="L10">
-        <v>0.8926178700018182</v>
+        <v>1.063269155963708</v>
       </c>
       <c r="M10">
-        <v>0.8899009968551335</v>
+        <v>1.071851313715718</v>
       </c>
       <c r="N10">
-        <v>0.8843933185269992</v>
+        <v>1.062907494717295</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.856348485082112</v>
+        <v>1.052357348190432</v>
       </c>
       <c r="D11">
-        <v>0.8721991855410706</v>
+        <v>1.051662558193425</v>
       </c>
       <c r="E11">
-        <v>0.8795139826966548</v>
+        <v>1.057298213136342</v>
       </c>
       <c r="F11">
-        <v>0.8767447633558766</v>
+        <v>1.065728960723682</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045260356825638</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.8831391596228573</v>
+        <v>1.058803370737039</v>
       </c>
       <c r="K11">
-        <v>0.8854422872492049</v>
+        <v>1.055172552928917</v>
       </c>
       <c r="L11">
-        <v>0.8926178700018182</v>
+        <v>1.060788115781959</v>
       </c>
       <c r="M11">
-        <v>0.8899009968551335</v>
+        <v>1.069189243321588</v>
       </c>
       <c r="N11">
-        <v>0.8843933185269992</v>
+        <v>1.06030699296993</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.856348485082112</v>
+        <v>1.05129583071583</v>
       </c>
       <c r="D12">
-        <v>0.8721991855410706</v>
+        <v>1.050678419744675</v>
       </c>
       <c r="E12">
-        <v>0.8795139826966548</v>
+        <v>1.05632316946924</v>
       </c>
       <c r="F12">
-        <v>0.8767447633558766</v>
+        <v>1.064686703683364</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045260356825638</v>
+        <v>1.023938164268118</v>
       </c>
       <c r="J12">
-        <v>0.8831391596228573</v>
+        <v>1.057832623876867</v>
       </c>
       <c r="K12">
-        <v>0.8854422872492049</v>
+        <v>1.054236202368447</v>
       </c>
       <c r="L12">
-        <v>0.8926178700018182</v>
+        <v>1.059860515943885</v>
       </c>
       <c r="M12">
-        <v>0.8899009968551335</v>
+        <v>1.06819421034859</v>
       </c>
       <c r="N12">
-        <v>0.8843933185269992</v>
+        <v>1.05933486753787</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.856348485082112</v>
+        <v>1.051523825717757</v>
       </c>
       <c r="D13">
-        <v>0.8721991855410706</v>
+        <v>1.050889801750513</v>
       </c>
       <c r="E13">
-        <v>0.8795139826966548</v>
+        <v>1.056532599346114</v>
       </c>
       <c r="F13">
-        <v>0.8767447633558766</v>
+        <v>1.064910560422093</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045260356825638</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.8831391596228573</v>
+        <v>1.058041136471595</v>
       </c>
       <c r="K13">
-        <v>0.8854422872492049</v>
+        <v>1.054437331228016</v>
       </c>
       <c r="L13">
-        <v>0.8926178700018182</v>
+        <v>1.060059766676768</v>
       </c>
       <c r="M13">
-        <v>0.8899009968551335</v>
+        <v>1.068407934598042</v>
       </c>
       <c r="N13">
-        <v>0.8843933185269992</v>
+        <v>1.059543676244399</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.856348485082112</v>
+        <v>1.052269735750752</v>
       </c>
       <c r="D14">
-        <v>0.8721991855410706</v>
+        <v>1.051581335230925</v>
       </c>
       <c r="E14">
-        <v>0.8795139826966548</v>
+        <v>1.057217741383971</v>
       </c>
       <c r="F14">
-        <v>0.8767447633558766</v>
+        <v>1.065642937289826</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045260356825638</v>
+        <v>1.023922712353274</v>
       </c>
       <c r="J14">
-        <v>0.8831391596228573</v>
+        <v>1.058723256138755</v>
       </c>
       <c r="K14">
-        <v>0.8854422872492049</v>
+        <v>1.055095279023094</v>
       </c>
       <c r="L14">
-        <v>0.8926178700018182</v>
+        <v>1.060711564736175</v>
       </c>
       <c r="M14">
-        <v>0.8899009968551335</v>
+        <v>1.069107122210945</v>
       </c>
       <c r="N14">
-        <v>0.8843933185269992</v>
+        <v>1.060226764599727</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.856348485082112</v>
+        <v>1.052728454518375</v>
       </c>
       <c r="D15">
-        <v>0.8721991855410706</v>
+        <v>1.052006594134751</v>
       </c>
       <c r="E15">
-        <v>0.8795139826966548</v>
+        <v>1.057639065973708</v>
       </c>
       <c r="F15">
-        <v>0.8767447633558766</v>
+        <v>1.066093337684767</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045260356825638</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.8831391596228573</v>
+        <v>1.05914270571262</v>
       </c>
       <c r="K15">
-        <v>0.8854422872492049</v>
+        <v>1.055499851784162</v>
       </c>
       <c r="L15">
-        <v>0.8926178700018182</v>
+        <v>1.061112351524428</v>
       </c>
       <c r="M15">
-        <v>0.8899009968551335</v>
+        <v>1.069537081545364</v>
       </c>
       <c r="N15">
-        <v>0.8843933185269992</v>
+        <v>1.060646809840098</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.856348485082112</v>
+        <v>1.055385485092558</v>
       </c>
       <c r="D16">
-        <v>0.8721991855410706</v>
+        <v>1.054469518008761</v>
       </c>
       <c r="E16">
-        <v>0.8795139826966548</v>
+        <v>1.060079144370744</v>
       </c>
       <c r="F16">
-        <v>0.8767447633558766</v>
+        <v>1.068702248157306</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045260356825638</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.8831391596228573</v>
+        <v>1.06157167663451</v>
       </c>
       <c r="K16">
-        <v>0.8854422872492049</v>
+        <v>1.057842474877153</v>
       </c>
       <c r="L16">
-        <v>0.8926178700018182</v>
+        <v>1.063432983854572</v>
       </c>
       <c r="M16">
-        <v>0.8899009968551335</v>
+        <v>1.072027130160847</v>
       </c>
       <c r="N16">
-        <v>0.8843933185269992</v>
+        <v>1.063079230179304</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.856348485082112</v>
+        <v>1.057041050305959</v>
       </c>
       <c r="D17">
-        <v>0.8721991855410706</v>
+        <v>1.056003874084446</v>
       </c>
       <c r="E17">
-        <v>0.8795139826966548</v>
+        <v>1.061599215428059</v>
       </c>
       <c r="F17">
-        <v>0.8767447633558766</v>
+        <v>1.070327882768646</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045260356825638</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.8831391596228573</v>
+        <v>1.063084611336228</v>
       </c>
       <c r="K17">
-        <v>0.8854422872492049</v>
+        <v>1.059301451397465</v>
       </c>
       <c r="L17">
-        <v>0.8926178700018182</v>
+        <v>1.064878204044377</v>
       </c>
       <c r="M17">
-        <v>0.8899009968551335</v>
+        <v>1.073578298551096</v>
       </c>
       <c r="N17">
-        <v>0.8843933185269992</v>
+        <v>1.064594313421835</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.856348485082112</v>
+        <v>1.058002803626237</v>
       </c>
       <c r="D18">
-        <v>0.8721991855410706</v>
+        <v>1.056895118798761</v>
       </c>
       <c r="E18">
-        <v>0.8795139826966548</v>
+        <v>1.062482143439312</v>
       </c>
       <c r="F18">
-        <v>0.8767447633558766</v>
+        <v>1.071272266771262</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045260356825638</v>
+        <v>1.023826118601775</v>
       </c>
       <c r="J18">
-        <v>0.8831391596228573</v>
+        <v>1.063963316726034</v>
       </c>
       <c r="K18">
-        <v>0.8854422872492049</v>
+        <v>1.060148755128853</v>
       </c>
       <c r="L18">
-        <v>0.8926178700018182</v>
+        <v>1.065717496842228</v>
       </c>
       <c r="M18">
-        <v>0.8899009968551335</v>
+        <v>1.074479278086792</v>
       </c>
       <c r="N18">
-        <v>0.8843933185269992</v>
+        <v>1.065474266674083</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.856348485082112</v>
+        <v>1.058330082532017</v>
       </c>
       <c r="D19">
-        <v>0.8721991855410706</v>
+        <v>1.057198387761433</v>
       </c>
       <c r="E19">
-        <v>0.8795139826966548</v>
+        <v>1.06278257917382</v>
       </c>
       <c r="F19">
-        <v>0.8767447633558766</v>
+        <v>1.07159363797398</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045260356825638</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.8831391596228573</v>
+        <v>1.064262302532385</v>
       </c>
       <c r="K19">
-        <v>0.8854422872492049</v>
+        <v>1.060437045600963</v>
       </c>
       <c r="L19">
-        <v>0.8926178700018182</v>
+        <v>1.066003057911241</v>
       </c>
       <c r="M19">
-        <v>0.8899009968551335</v>
+        <v>1.074785854370916</v>
       </c>
       <c r="N19">
-        <v>0.8843933185269992</v>
+        <v>1.065773677074573</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.856348485082112</v>
+        <v>1.0568638304078</v>
       </c>
       <c r="D20">
-        <v>0.8721991855410706</v>
+        <v>1.055839638902447</v>
       </c>
       <c r="E20">
-        <v>0.8795139826966548</v>
+        <v>1.061436511270899</v>
       </c>
       <c r="F20">
-        <v>0.8767447633558766</v>
+        <v>1.07015386490463</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045260356825638</v>
+        <v>1.023846096030143</v>
       </c>
       <c r="J20">
-        <v>0.8831391596228573</v>
+        <v>1.062922679076665</v>
       </c>
       <c r="K20">
-        <v>0.8854422872492049</v>
+        <v>1.059145300908942</v>
       </c>
       <c r="L20">
-        <v>0.8926178700018182</v>
+        <v>1.064723528128733</v>
       </c>
       <c r="M20">
-        <v>0.8899009968551335</v>
+        <v>1.073412266995193</v>
       </c>
       <c r="N20">
-        <v>0.8843933185269992</v>
+        <v>1.064432151199889</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.856348485082112</v>
+        <v>1.052050263780348</v>
       </c>
       <c r="D21">
-        <v>0.8721991855410706</v>
+        <v>1.051377866732292</v>
       </c>
       <c r="E21">
-        <v>0.8795139826966548</v>
+        <v>1.057016154237538</v>
       </c>
       <c r="F21">
-        <v>0.8767447633558766</v>
+        <v>1.065427446346162</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045260356825638</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.8831391596228573</v>
+        <v>1.058522561683257</v>
       </c>
       <c r="K21">
-        <v>0.8854422872492049</v>
+        <v>1.0549016991743</v>
       </c>
       <c r="L21">
-        <v>0.8926178700018182</v>
+        <v>1.060519795184712</v>
       </c>
       <c r="M21">
-        <v>0.8899009968551335</v>
+        <v>1.068901403005153</v>
       </c>
       <c r="N21">
-        <v>0.8843933185269992</v>
+        <v>1.060025785135082</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.856348485082112</v>
+        <v>1.048986436919783</v>
       </c>
       <c r="D22">
-        <v>0.8721991855410706</v>
+        <v>1.048537100465997</v>
       </c>
       <c r="E22">
-        <v>0.8795139826966548</v>
+        <v>1.054201585194992</v>
       </c>
       <c r="F22">
-        <v>0.8767447633558766</v>
+        <v>1.062419272844665</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045260356825638</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.8831391596228573</v>
+        <v>1.055720159730901</v>
       </c>
       <c r="K22">
-        <v>0.8854422872492049</v>
+        <v>1.052198408252213</v>
       </c>
       <c r="L22">
-        <v>0.8926178700018182</v>
+        <v>1.057841704016115</v>
       </c>
       <c r="M22">
-        <v>0.8899009968551335</v>
+        <v>1.066029096097794</v>
       </c>
       <c r="N22">
-        <v>0.8843933185269992</v>
+        <v>1.057219403450514</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.856348485082112</v>
+        <v>1.050614275254111</v>
       </c>
       <c r="D23">
-        <v>0.8721991855410706</v>
+        <v>1.050046504798131</v>
       </c>
       <c r="E23">
-        <v>0.8795139826966548</v>
+        <v>1.055697086010733</v>
       </c>
       <c r="F23">
-        <v>0.8767447633558766</v>
+        <v>1.064017523733382</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045260356825638</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.8831391596228573</v>
+        <v>1.057209264314164</v>
       </c>
       <c r="K23">
-        <v>0.8854422872492049</v>
+        <v>1.053634902454559</v>
       </c>
       <c r="L23">
-        <v>0.8926178700018182</v>
+        <v>1.059264825958132</v>
       </c>
       <c r="M23">
-        <v>0.8899009968551335</v>
+        <v>1.067555286184473</v>
       </c>
       <c r="N23">
-        <v>0.8843933185269992</v>
+        <v>1.058710622733087</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.856348485082112</v>
+        <v>1.056943920512945</v>
       </c>
       <c r="D24">
-        <v>0.8721991855410706</v>
+        <v>1.055913861185716</v>
       </c>
       <c r="E24">
-        <v>0.8795139826966548</v>
+        <v>1.061510041702207</v>
       </c>
       <c r="F24">
-        <v>0.8767447633558766</v>
+        <v>1.070232507874908</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045260356825638</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.8831391596228573</v>
+        <v>1.062995860906222</v>
       </c>
       <c r="K24">
-        <v>0.8854422872492049</v>
+        <v>1.059215869985504</v>
       </c>
       <c r="L24">
-        <v>0.8926178700018182</v>
+        <v>1.064793430869575</v>
       </c>
       <c r="M24">
-        <v>0.8899009968551335</v>
+        <v>1.073487301203203</v>
       </c>
       <c r="N24">
-        <v>0.8843933185269992</v>
+        <v>1.064505436956038</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.856348485082112</v>
+        <v>1.064136719599562</v>
       </c>
       <c r="D25">
-        <v>0.8721991855410706</v>
+        <v>1.062577606536118</v>
       </c>
       <c r="E25">
-        <v>0.8795139826966548</v>
+        <v>1.068111258050262</v>
       </c>
       <c r="F25">
-        <v>0.8767447633558766</v>
+        <v>1.077295700824986</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045260356825638</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.8831391596228573</v>
+        <v>1.069564138732758</v>
       </c>
       <c r="K25">
-        <v>0.8854422872492049</v>
+        <v>1.065548292893455</v>
       </c>
       <c r="L25">
-        <v>0.8926178700018182</v>
+        <v>1.071065588445654</v>
       </c>
       <c r="M25">
-        <v>0.8899009968551335</v>
+        <v>1.080223287716545</v>
       </c>
       <c r="N25">
-        <v>0.8843933185269992</v>
+        <v>1.071083042490479</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_110/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_110/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.069761271434878</v>
+        <v>0.841157821528099</v>
       </c>
       <c r="D2">
-        <v>1.067785388946207</v>
+        <v>0.8583029811561572</v>
       </c>
       <c r="E2">
-        <v>1.07326956157212</v>
+        <v>0.865755719546437</v>
       </c>
       <c r="F2">
-        <v>1.082819363328973</v>
+        <v>0.8621430497729228</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02359499962809</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.074694357669287</v>
+        <v>0.8694071624540763</v>
       </c>
       <c r="K2">
-        <v>1.070492320365493</v>
+        <v>0.8721666837734552</v>
       </c>
       <c r="L2">
-        <v>1.075961869338504</v>
+        <v>0.8794671332686449</v>
       </c>
       <c r="M2">
-        <v>1.085486588178511</v>
+        <v>0.875927851072807</v>
       </c>
       <c r="N2">
-        <v>1.076220546926343</v>
+        <v>0.8706418203471565</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.07378490091116</v>
+        <v>0.8823592107182978</v>
       </c>
       <c r="D3">
-        <v>1.071509064804203</v>
+        <v>0.8960278820645093</v>
       </c>
       <c r="E3">
-        <v>1.076957498081293</v>
+        <v>0.9031115166354555</v>
       </c>
       <c r="F3">
-        <v>1.086771039950969</v>
+        <v>0.9017884205501546</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208684</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.078360888699482</v>
+        <v>0.9066661549396483</v>
       </c>
       <c r="K3">
-        <v>1.074024634390174</v>
+        <v>0.908190023427159</v>
       </c>
       <c r="L3">
-        <v>1.079459663349571</v>
+        <v>0.9151550870259134</v>
       </c>
       <c r="M3">
-        <v>1.089249426160168</v>
+        <v>0.9138539556731294</v>
       </c>
       <c r="N3">
-        <v>1.079892284851158</v>
+        <v>0.9079537248757241</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.076362090783609</v>
+        <v>0.9043742790968088</v>
       </c>
       <c r="D4">
-        <v>1.073893282188317</v>
+        <v>0.9162246006762896</v>
       </c>
       <c r="E4">
-        <v>1.079318663033241</v>
+        <v>0.9231166991317428</v>
       </c>
       <c r="F4">
-        <v>1.089302230544024</v>
+        <v>0.9230220240667649</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.080707745567631</v>
+        <v>0.9265864589071009</v>
       </c>
       <c r="K4">
-        <v>1.076285050242306</v>
+        <v>0.9274516227700051</v>
       </c>
       <c r="L4">
-        <v>1.081697799192502</v>
+        <v>0.9342410559940384</v>
       </c>
       <c r="M4">
-        <v>1.09165847422222</v>
+        <v>0.9341477780222475</v>
       </c>
       <c r="N4">
-        <v>1.082242474525248</v>
+        <v>0.9279023179597011</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.077439446749066</v>
+        <v>0.9128696078399883</v>
       </c>
       <c r="D5">
-        <v>1.074889764089804</v>
+        <v>0.9240240542182476</v>
       </c>
       <c r="E5">
-        <v>1.080305469383531</v>
+        <v>0.9308430664535833</v>
       </c>
       <c r="F5">
-        <v>1.090360376086116</v>
+        <v>0.9312241168527937</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628352</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.081688428980044</v>
+        <v>0.9342738505063422</v>
       </c>
       <c r="K5">
-        <v>1.077229484796218</v>
+        <v>0.934884730248829</v>
       </c>
       <c r="L5">
-        <v>1.08263287913079</v>
+        <v>0.9416068616637285</v>
       </c>
       <c r="M5">
-        <v>1.092665275982175</v>
+        <v>0.941982551188584</v>
       </c>
       <c r="N5">
-        <v>1.083224550620593</v>
+        <v>0.9356006265367695</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.077619988369254</v>
+        <v>0.9142580042430308</v>
       </c>
       <c r="D6">
-        <v>1.075056740895716</v>
+        <v>0.9252989954957929</v>
       </c>
       <c r="E6">
-        <v>1.080470822488941</v>
+        <v>0.9321061013801071</v>
       </c>
       <c r="F6">
-        <v>1.090537699503253</v>
+        <v>0.9325650087775531</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.045370270238388</v>
       </c>
       <c r="J6">
-        <v>1.081852747741767</v>
+        <v>0.9355301831373143</v>
       </c>
       <c r="K6">
-        <v>1.077387722367406</v>
+        <v>0.9360994902787285</v>
       </c>
       <c r="L6">
-        <v>1.082789546670653</v>
+        <v>0.9428106428285224</v>
       </c>
       <c r="M6">
-        <v>1.092833978650151</v>
+        <v>0.943263145059432</v>
       </c>
       <c r="N6">
-        <v>1.083389102733805</v>
+        <v>0.9368587433041811</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.076376510130172</v>
+        <v>0.9044904661855616</v>
       </c>
       <c r="D7">
-        <v>1.073906619924006</v>
+        <v>0.9163312504991533</v>
       </c>
       <c r="E7">
-        <v>1.079331871424509</v>
+        <v>0.9232223465564559</v>
       </c>
       <c r="F7">
-        <v>1.089316392706307</v>
+        <v>0.9231341704937877</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02344298551034</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.080720872565408</v>
+        <v>0.9266915967844659</v>
       </c>
       <c r="K7">
-        <v>1.076297692531983</v>
+        <v>0.9275532837466297</v>
       </c>
       <c r="L7">
-        <v>1.081710316440782</v>
+        <v>0.9343417949687008</v>
       </c>
       <c r="M7">
-        <v>1.091671950315747</v>
+        <v>0.9342549192579355</v>
       </c>
       <c r="N7">
-        <v>1.082255620164868</v>
+        <v>0.9280076051449114</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.071126668725622</v>
+        <v>0.8563484850821156</v>
       </c>
       <c r="D8">
-        <v>1.06904917432753</v>
+        <v>0.8721991855410738</v>
       </c>
       <c r="E8">
-        <v>1.074521252353219</v>
+        <v>0.879513982696658</v>
       </c>
       <c r="F8">
-        <v>1.084160324290593</v>
+        <v>0.8767447633558799</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.075938910077685</v>
+        <v>0.8831391596228607</v>
       </c>
       <c r="K8">
-        <v>1.071691425488774</v>
+        <v>0.885442287249208</v>
       </c>
       <c r="L8">
-        <v>1.077149295479841</v>
+        <v>0.8926178700018215</v>
       </c>
       <c r="M8">
-        <v>1.086763716044522</v>
+        <v>0.8899009968551368</v>
       </c>
       <c r="N8">
-        <v>1.077466866741913</v>
+        <v>0.8843933185270028</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.061663718938178</v>
+        <v>0.8563484850821156</v>
       </c>
       <c r="D9">
-        <v>1.060286977572865</v>
+        <v>0.8721991855410738</v>
       </c>
       <c r="E9">
-        <v>1.06584221789996</v>
+        <v>0.879513982696658</v>
       </c>
       <c r="F9">
-        <v>1.074867182822559</v>
+        <v>0.8767447633558799</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J9">
-        <v>1.067306791918144</v>
+        <v>0.8831391596228607</v>
       </c>
       <c r="K9">
-        <v>1.063372311689228</v>
+        <v>0.885442287249208</v>
       </c>
       <c r="L9">
-        <v>1.068910423956386</v>
+        <v>0.8926178700018215</v>
       </c>
       <c r="M9">
-        <v>1.077907974389667</v>
+        <v>0.8899009968551368</v>
       </c>
       <c r="N9">
-        <v>1.068822489984467</v>
+        <v>0.8843933185270028</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.055197854270927</v>
+        <v>0.8563484850821156</v>
       </c>
       <c r="D10">
-        <v>1.054295611293696</v>
+        <v>0.8721991855410738</v>
       </c>
       <c r="E10">
-        <v>1.059906854158194</v>
+        <v>0.879513982696658</v>
       </c>
       <c r="F10">
-        <v>1.068518011982952</v>
+        <v>0.8767447633558799</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J10">
-        <v>1.061400184710702</v>
+        <v>0.8831391596228607</v>
       </c>
       <c r="K10">
-        <v>1.057677090588836</v>
+        <v>0.885442287249208</v>
       </c>
       <c r="L10">
-        <v>1.063269155963708</v>
+        <v>0.8926178700018215</v>
       </c>
       <c r="M10">
-        <v>1.071851313715718</v>
+        <v>0.8899009968551368</v>
       </c>
       <c r="N10">
-        <v>1.062907494717295</v>
+        <v>0.8843933185270028</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.052357348190432</v>
+        <v>0.8563484850821156</v>
       </c>
       <c r="D11">
-        <v>1.051662558193425</v>
+        <v>0.8721991855410738</v>
       </c>
       <c r="E11">
-        <v>1.057298213136342</v>
+        <v>0.879513982696658</v>
       </c>
       <c r="F11">
-        <v>1.065728960723682</v>
+        <v>0.8767447633558799</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J11">
-        <v>1.058803370737039</v>
+        <v>0.8831391596228607</v>
       </c>
       <c r="K11">
-        <v>1.055172552928917</v>
+        <v>0.885442287249208</v>
       </c>
       <c r="L11">
-        <v>1.060788115781959</v>
+        <v>0.8926178700018215</v>
       </c>
       <c r="M11">
-        <v>1.069189243321588</v>
+        <v>0.8899009968551368</v>
       </c>
       <c r="N11">
-        <v>1.06030699296993</v>
+        <v>0.8843933185270028</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.05129583071583</v>
+        <v>0.8563484850821156</v>
       </c>
       <c r="D12">
-        <v>1.050678419744675</v>
+        <v>0.8721991855410738</v>
       </c>
       <c r="E12">
-        <v>1.05632316946924</v>
+        <v>0.879513982696658</v>
       </c>
       <c r="F12">
-        <v>1.064686703683364</v>
+        <v>0.8767447633558799</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268118</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J12">
-        <v>1.057832623876867</v>
+        <v>0.8831391596228607</v>
       </c>
       <c r="K12">
-        <v>1.054236202368447</v>
+        <v>0.885442287249208</v>
       </c>
       <c r="L12">
-        <v>1.059860515943885</v>
+        <v>0.8926178700018215</v>
       </c>
       <c r="M12">
-        <v>1.06819421034859</v>
+        <v>0.8899009968551368</v>
       </c>
       <c r="N12">
-        <v>1.05933486753787</v>
+        <v>0.8843933185270028</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.051523825717757</v>
+        <v>0.8563484850821156</v>
       </c>
       <c r="D13">
-        <v>1.050889801750513</v>
+        <v>0.8721991855410738</v>
       </c>
       <c r="E13">
-        <v>1.056532599346114</v>
+        <v>0.879513982696658</v>
       </c>
       <c r="F13">
-        <v>1.064910560422093</v>
+        <v>0.8767447633558799</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J13">
-        <v>1.058041136471595</v>
+        <v>0.8831391596228607</v>
       </c>
       <c r="K13">
-        <v>1.054437331228016</v>
+        <v>0.885442287249208</v>
       </c>
       <c r="L13">
-        <v>1.060059766676768</v>
+        <v>0.8926178700018215</v>
       </c>
       <c r="M13">
-        <v>1.068407934598042</v>
+        <v>0.8899009968551368</v>
       </c>
       <c r="N13">
-        <v>1.059543676244399</v>
+        <v>0.8843933185270028</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.052269735750752</v>
+        <v>0.8563484850821156</v>
       </c>
       <c r="D14">
-        <v>1.051581335230925</v>
+        <v>0.8721991855410738</v>
       </c>
       <c r="E14">
-        <v>1.057217741383971</v>
+        <v>0.879513982696658</v>
       </c>
       <c r="F14">
-        <v>1.065642937289826</v>
+        <v>0.8767447633558799</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353274</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J14">
-        <v>1.058723256138755</v>
+        <v>0.8831391596228607</v>
       </c>
       <c r="K14">
-        <v>1.055095279023094</v>
+        <v>0.885442287249208</v>
       </c>
       <c r="L14">
-        <v>1.060711564736175</v>
+        <v>0.8926178700018215</v>
       </c>
       <c r="M14">
-        <v>1.069107122210945</v>
+        <v>0.8899009968551368</v>
       </c>
       <c r="N14">
-        <v>1.060226764599727</v>
+        <v>0.8843933185270028</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.052728454518375</v>
+        <v>0.8563484850821156</v>
       </c>
       <c r="D15">
-        <v>1.052006594134751</v>
+        <v>0.8721991855410738</v>
       </c>
       <c r="E15">
-        <v>1.057639065973708</v>
+        <v>0.879513982696658</v>
       </c>
       <c r="F15">
-        <v>1.066093337684767</v>
+        <v>0.8767447633558799</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J15">
-        <v>1.05914270571262</v>
+        <v>0.8831391596228607</v>
       </c>
       <c r="K15">
-        <v>1.055499851784162</v>
+        <v>0.885442287249208</v>
       </c>
       <c r="L15">
-        <v>1.061112351524428</v>
+        <v>0.8926178700018215</v>
       </c>
       <c r="M15">
-        <v>1.069537081545364</v>
+        <v>0.8899009968551368</v>
       </c>
       <c r="N15">
-        <v>1.060646809840098</v>
+        <v>0.8843933185270028</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.055385485092558</v>
+        <v>0.8563484850821156</v>
       </c>
       <c r="D16">
-        <v>1.054469518008761</v>
+        <v>0.8721991855410738</v>
       </c>
       <c r="E16">
-        <v>1.060079144370744</v>
+        <v>0.879513982696658</v>
       </c>
       <c r="F16">
-        <v>1.068702248157306</v>
+        <v>0.8767447633558799</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J16">
-        <v>1.06157167663451</v>
+        <v>0.8831391596228607</v>
       </c>
       <c r="K16">
-        <v>1.057842474877153</v>
+        <v>0.885442287249208</v>
       </c>
       <c r="L16">
-        <v>1.063432983854572</v>
+        <v>0.8926178700018215</v>
       </c>
       <c r="M16">
-        <v>1.072027130160847</v>
+        <v>0.8899009968551368</v>
       </c>
       <c r="N16">
-        <v>1.063079230179304</v>
+        <v>0.8843933185270028</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.057041050305959</v>
+        <v>0.8563484850821156</v>
       </c>
       <c r="D17">
-        <v>1.056003874084446</v>
+        <v>0.8721991855410738</v>
       </c>
       <c r="E17">
-        <v>1.061599215428059</v>
+        <v>0.879513982696658</v>
       </c>
       <c r="F17">
-        <v>1.070327882768646</v>
+        <v>0.8767447633558799</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J17">
-        <v>1.063084611336228</v>
+        <v>0.8831391596228607</v>
       </c>
       <c r="K17">
-        <v>1.059301451397465</v>
+        <v>0.885442287249208</v>
       </c>
       <c r="L17">
-        <v>1.064878204044377</v>
+        <v>0.8926178700018215</v>
       </c>
       <c r="M17">
-        <v>1.073578298551096</v>
+        <v>0.8899009968551368</v>
       </c>
       <c r="N17">
-        <v>1.064594313421835</v>
+        <v>0.8843933185270028</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.058002803626237</v>
+        <v>0.8563484850821156</v>
       </c>
       <c r="D18">
-        <v>1.056895118798761</v>
+        <v>0.8721991855410738</v>
       </c>
       <c r="E18">
-        <v>1.062482143439312</v>
+        <v>0.879513982696658</v>
       </c>
       <c r="F18">
-        <v>1.071272266771262</v>
+        <v>0.8767447633558799</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601775</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J18">
-        <v>1.063963316726034</v>
+        <v>0.8831391596228607</v>
       </c>
       <c r="K18">
-        <v>1.060148755128853</v>
+        <v>0.885442287249208</v>
       </c>
       <c r="L18">
-        <v>1.065717496842228</v>
+        <v>0.8926178700018215</v>
       </c>
       <c r="M18">
-        <v>1.074479278086792</v>
+        <v>0.8899009968551368</v>
       </c>
       <c r="N18">
-        <v>1.065474266674083</v>
+        <v>0.8843933185270028</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.058330082532017</v>
+        <v>0.8563484850821156</v>
       </c>
       <c r="D19">
-        <v>1.057198387761433</v>
+        <v>0.8721991855410738</v>
       </c>
       <c r="E19">
-        <v>1.06278257917382</v>
+        <v>0.879513982696658</v>
       </c>
       <c r="F19">
-        <v>1.07159363797398</v>
+        <v>0.8767447633558799</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J19">
-        <v>1.064262302532385</v>
+        <v>0.8831391596228607</v>
       </c>
       <c r="K19">
-        <v>1.060437045600963</v>
+        <v>0.885442287249208</v>
       </c>
       <c r="L19">
-        <v>1.066003057911241</v>
+        <v>0.8926178700018215</v>
       </c>
       <c r="M19">
-        <v>1.074785854370916</v>
+        <v>0.8899009968551368</v>
       </c>
       <c r="N19">
-        <v>1.065773677074573</v>
+        <v>0.8843933185270028</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0568638304078</v>
+        <v>0.8563484850821156</v>
       </c>
       <c r="D20">
-        <v>1.055839638902447</v>
+        <v>0.8721991855410738</v>
       </c>
       <c r="E20">
-        <v>1.061436511270899</v>
+        <v>0.879513982696658</v>
       </c>
       <c r="F20">
-        <v>1.07015386490463</v>
+        <v>0.8767447633558799</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030143</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J20">
-        <v>1.062922679076665</v>
+        <v>0.8831391596228607</v>
       </c>
       <c r="K20">
-        <v>1.059145300908942</v>
+        <v>0.885442287249208</v>
       </c>
       <c r="L20">
-        <v>1.064723528128733</v>
+        <v>0.8926178700018215</v>
       </c>
       <c r="M20">
-        <v>1.073412266995193</v>
+        <v>0.8899009968551368</v>
       </c>
       <c r="N20">
-        <v>1.064432151199889</v>
+        <v>0.8843933185270028</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.052050263780348</v>
+        <v>0.8563484850821156</v>
       </c>
       <c r="D21">
-        <v>1.051377866732292</v>
+        <v>0.8721991855410738</v>
       </c>
       <c r="E21">
-        <v>1.057016154237538</v>
+        <v>0.879513982696658</v>
       </c>
       <c r="F21">
-        <v>1.065427446346162</v>
+        <v>0.8767447633558799</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J21">
-        <v>1.058522561683257</v>
+        <v>0.8831391596228607</v>
       </c>
       <c r="K21">
-        <v>1.0549016991743</v>
+        <v>0.885442287249208</v>
       </c>
       <c r="L21">
-        <v>1.060519795184712</v>
+        <v>0.8926178700018215</v>
       </c>
       <c r="M21">
-        <v>1.068901403005153</v>
+        <v>0.8899009968551368</v>
       </c>
       <c r="N21">
-        <v>1.060025785135082</v>
+        <v>0.8843933185270028</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.048986436919783</v>
+        <v>0.8563484850821156</v>
       </c>
       <c r="D22">
-        <v>1.048537100465997</v>
+        <v>0.8721991855410738</v>
       </c>
       <c r="E22">
-        <v>1.054201585194992</v>
+        <v>0.879513982696658</v>
       </c>
       <c r="F22">
-        <v>1.062419272844665</v>
+        <v>0.8767447633558799</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J22">
-        <v>1.055720159730901</v>
+        <v>0.8831391596228607</v>
       </c>
       <c r="K22">
-        <v>1.052198408252213</v>
+        <v>0.885442287249208</v>
       </c>
       <c r="L22">
-        <v>1.057841704016115</v>
+        <v>0.8926178700018215</v>
       </c>
       <c r="M22">
-        <v>1.066029096097794</v>
+        <v>0.8899009968551368</v>
       </c>
       <c r="N22">
-        <v>1.057219403450514</v>
+        <v>0.8843933185270028</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.050614275254111</v>
+        <v>0.8563484850821156</v>
       </c>
       <c r="D23">
-        <v>1.050046504798131</v>
+        <v>0.8721991855410738</v>
       </c>
       <c r="E23">
-        <v>1.055697086010733</v>
+        <v>0.879513982696658</v>
       </c>
       <c r="F23">
-        <v>1.064017523733382</v>
+        <v>0.8767447633558799</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J23">
-        <v>1.057209264314164</v>
+        <v>0.8831391596228607</v>
       </c>
       <c r="K23">
-        <v>1.053634902454559</v>
+        <v>0.885442287249208</v>
       </c>
       <c r="L23">
-        <v>1.059264825958132</v>
+        <v>0.8926178700018215</v>
       </c>
       <c r="M23">
-        <v>1.067555286184473</v>
+        <v>0.8899009968551368</v>
       </c>
       <c r="N23">
-        <v>1.058710622733087</v>
+        <v>0.8843933185270028</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.056943920512945</v>
+        <v>0.8563484850821156</v>
       </c>
       <c r="D24">
-        <v>1.055913861185716</v>
+        <v>0.8721991855410738</v>
       </c>
       <c r="E24">
-        <v>1.061510041702207</v>
+        <v>0.879513982696658</v>
       </c>
       <c r="F24">
-        <v>1.070232507874908</v>
+        <v>0.8767447633558799</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J24">
-        <v>1.062995860906222</v>
+        <v>0.8831391596228607</v>
       </c>
       <c r="K24">
-        <v>1.059215869985504</v>
+        <v>0.885442287249208</v>
       </c>
       <c r="L24">
-        <v>1.064793430869575</v>
+        <v>0.8926178700018215</v>
       </c>
       <c r="M24">
-        <v>1.073487301203203</v>
+        <v>0.8899009968551368</v>
       </c>
       <c r="N24">
-        <v>1.064505436956038</v>
+        <v>0.8843933185270028</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.064136719599562</v>
+        <v>0.8563484850821156</v>
       </c>
       <c r="D25">
-        <v>1.062577606536118</v>
+        <v>0.8721991855410738</v>
       </c>
       <c r="E25">
-        <v>1.068111258050262</v>
+        <v>0.879513982696658</v>
       </c>
       <c r="F25">
-        <v>1.077295700824986</v>
+        <v>0.8767447633558799</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J25">
-        <v>1.069564138732758</v>
+        <v>0.8831391596228607</v>
       </c>
       <c r="K25">
-        <v>1.065548292893455</v>
+        <v>0.885442287249208</v>
       </c>
       <c r="L25">
-        <v>1.071065588445654</v>
+        <v>0.8926178700018215</v>
       </c>
       <c r="M25">
-        <v>1.080223287716545</v>
+        <v>0.8899009968551368</v>
       </c>
       <c r="N25">
-        <v>1.071083042490479</v>
+        <v>0.8843933185270028</v>
       </c>
     </row>
   </sheetData>
